--- a/Original_Excel_Files/PC.xlsx
+++ b/Original_Excel_Files/PC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637B43C3-F747-4F7C-AC91-F8371E828AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14276B-E420-4289-88D2-548178DD3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>PC1640 .P33</t>
   </si>
@@ -103,9 +103,6 @@
     <t>PC2064 .K5 A3 v1</t>
   </si>
   <si>
-    <t>Klemperer, Victor</t>
-  </si>
-  <si>
     <t>I Will Bear Witness 1933-1941</t>
   </si>
   <si>
@@ -118,19 +115,22 @@
     <t>PC3941 .R57 P513</t>
   </si>
   <si>
-    <t>Rodoreda, Merce</t>
-  </si>
-  <si>
     <t>The Time of the Doves</t>
   </si>
   <si>
     <t>PC4117 .A735</t>
   </si>
   <si>
-    <t>ed. Andrian, Gustave W.</t>
-  </si>
-  <si>
     <t>Modern Spanish Prose and Poetry</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -193,29 +193,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,254 +552,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:I31"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="B6" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="12">
-        <v>1999</v>
-      </c>
-      <c r="G9" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B7" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2001</v>
-      </c>
-      <c r="G10" s="4" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>1980</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="12">
-        <v>1980</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="B16" s="10">
+        <v>1964</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1964</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I34">
-    <sortCondition ref="A1:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
